--- a/biology/Zoologie/Acanthize_mignon/Acanthize_mignon.xlsx
+++ b/biology/Zoologie/Acanthize_mignon/Acanthize_mignon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthiza pusilla
 L'Acanthize mignon (Acanthiza pusilla) est une espèce de passereaux appartenant à la famille des Acanthizidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit à l'est et au sud-est de l'Australie ainsi qu'en Tasmanie.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau de petite taille (10 cm).
 </t>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se nourrit essentiellement d'insectes.
 </t>
@@ -605,7 +623,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe cinq sous-espèces :
 Acanthiza pusilla dawsonensis A.G. Campbell, 1922 ;
@@ -640,7 +660,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Liste des oiseaux d'Australie</t>
         </is>
